--- a/biology/Botanique/Saba_(plante)/Saba_(plante).xlsx
+++ b/biology/Botanique/Saba_(plante)/Saba_(plante).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Saba  est un genre de plante de la famille Apocynaceae  décrite comme genre dès 1849. Les espèces de ce genre sont originaires de Madagascar, des Comores, et de la partie tropicale de l'Afrique[1],[2],[3],[4],[5],[6],[7],[8],[9],[10].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Saba  est un genre de plante de la famille Apocynaceae  décrite comme genre dès 1849. Les espèces de ce genre sont originaires de Madagascar, des Comores, et de la partie tropicale de l'Afrique.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre a été décrit principalement par Marcel Pichon et publié dans "Mémoires de l'Institut Français d'Afrique Noire" 35 : 302. 1953[11].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre a été décrit principalement par Marcel Pichon et publié dans "Mémoires de l'Institut Français d'Afrique Noire" 35 : 302. 1953.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>(d’après Kew Wcsp)  [12]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(d’après Kew Wcsp)  
 Saba comorensis (Bojer ex A. DC. ) Pichon - Madagascar, les Comores, l'Afrique, du Sénégal à la Somalie et du sud au Zimbabwe
 Saba senegalensis (A. DC. ) Pichon - Sahel ; du Sénégal à la République Centrafricaine
 Saba thompsonii (A. Chev. ) Pichon - W Afrique (Bénin, Togo, Burkina Faso, Ghana, Côte D'Ivoire, Nigeria)</t>
